--- a/preprocesamiento/fuentes/ipc_series_ctes_manual.xlsx
+++ b/preprocesamiento/fuentes/ipc_series_ctes_manual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carol\Documents\Ecofeminita-general\shinyapp\preprocesamiento\fuentes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinapradier/GIT/shinyapp/preprocesamiento/fuentes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B508A38D-5103-4642-97FF-059F79499976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4707464C-F1AF-0542-92A5-2F874611E2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="-135" windowWidth="21870" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shiny_regiones" sheetId="11" r:id="rId1"/>
@@ -517,13 +517,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495EB06F-1435-4337-BFF5-5A48A8FD771B}">
   <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -557,14 +557,14 @@
         <v>10.108352776981226</v>
       </c>
       <c r="E2">
-        <f>(1/D2)*100</f>
+        <f t="shared" ref="E2:E7" si="0">(1/D2)*100</f>
         <v>9.8928086708370842</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -578,11 +578,11 @@
         <v>10.108352776981226</v>
       </c>
       <c r="E3">
-        <f>(1/D3)*100</f>
+        <f t="shared" si="0"/>
         <v>9.8928086708370842</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -596,11 +596,11 @@
         <v>10.108352776981226</v>
       </c>
       <c r="E4">
-        <f>(1/D4)*100</f>
+        <f t="shared" si="0"/>
         <v>9.8928086708370842</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -614,11 +614,11 @@
         <v>10.108352776981226</v>
       </c>
       <c r="E5">
-        <f>(1/D5)*100</f>
+        <f t="shared" si="0"/>
         <v>9.8928086708370842</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -632,11 +632,11 @@
         <v>10.108352776981226</v>
       </c>
       <c r="E6">
-        <f>(1/D6)*100</f>
+        <f t="shared" si="0"/>
         <v>9.8928086708370842</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2016</v>
       </c>
@@ -650,11 +650,11 @@
         <v>10.108352776981226</v>
       </c>
       <c r="E7">
-        <f>(1/D7)*100</f>
+        <f t="shared" si="0"/>
         <v>9.8928086708370842</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -671,7 +671,7 @@
         <v>9.3269984173384159</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2016</v>
       </c>
@@ -688,7 +688,7 @@
         <v>9.3269984173384159</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -705,7 +705,7 @@
         <v>9.3269984173384159</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2016</v>
       </c>
@@ -722,7 +722,7 @@
         <v>9.3269984173384159</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -739,7 +739,7 @@
         <v>9.3269984173384159</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -756,7 +756,7 @@
         <v>9.3269984173384159</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>2016</v>
       </c>
@@ -773,7 +773,7 @@
         <v>9.4605893333333295</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2016</v>
       </c>
@@ -790,7 +790,7 @@
         <v>8.9047466666666679</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2016</v>
       </c>
@@ -807,7 +807,7 @@
         <v>9.5489060000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2016</v>
       </c>
@@ -824,7 +824,7 @@
         <v>9.3712810000000015</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -841,7 +841,7 @@
         <v>9.2072580000000013</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2016</v>
       </c>
@@ -858,7 +858,7 @@
         <v>8.9970039999999987</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2017</v>
       </c>
@@ -875,7 +875,7 @@
         <v>9.1290114649124536</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2017</v>
       </c>
@@ -892,7 +892,7 @@
         <v>8.5791893101833985</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2017</v>
       </c>
@@ -909,7 +909,7 @@
         <v>9.2075395407080638</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2017</v>
       </c>
@@ -926,7 +926,7 @@
         <v>9.0002343390598369</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2017</v>
       </c>
@@ -943,7 +943,7 @@
         <v>8.8777199930962372</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2017</v>
       </c>
@@ -960,7 +960,7 @@
         <v>8.6134554425966137</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2017</v>
       </c>
@@ -977,7 +977,7 @@
         <v>8.5182060058915141</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2017</v>
       </c>
@@ -994,7 +994,7 @@
         <v>8.0581980433541531</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2017</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>8.6619065574063203</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2017</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>8.4099909958688954</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2017</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>8.3601643474905227</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2017</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>8.1581676094502793</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2017</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>8.1753317961133334</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2017</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>7.6878032833307586</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2017</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>8.3220862388924708</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2017</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>8.0832826579927719</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2017</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>7.9840139205436182</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2017</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>7.8126889057029967</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2017</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>7.7420376275596947</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2017</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>7.3103216523575698</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2017</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>7.9602011035519906</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2017</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>7.6853066143922426</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2017</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>7.5584418569587184</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2017</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>7.443589004639982</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2018</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>7.2451873433083129</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2018</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>6.8356290851178407</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2018</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>7.4913964595238909</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2018</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>7.2247592654316115</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2018</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>7.0747185213814641</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2018</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>6.9373793265108477</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2018</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>6.690766068566413</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2018</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>6.3367524068009562</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2018</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>6.9430632669146579</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2018</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>6.6597929279398045</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2018</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>6.5590315292959822</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2018</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>6.417575174830163</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2018</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>5.9903851653701183</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2018</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>5.6865087440408528</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2018</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>6.203065509927665</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2018</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>5.9696012380080061</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2018</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>5.8781650832605008</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2018</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>5.7755935435607526</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2018</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>5.183702781564552</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2018</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>4.9777777777777796</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2018</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>5.4208936662137166</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2018</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>5.2321946847349778</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>5.120117432602127</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2018</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>4.9898057598205732</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2019</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>4.7057190489336094</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2019</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>4.5182555232023294</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2019</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>4.8728198011899977</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2019</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>4.7289855937884075</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2019</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>4.6662421931619189</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2019</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>4.5394630886028331</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2019</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>4.2513560276893116</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2019</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>4.0726856722607483</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2019</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>4.3650272651182407</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2019</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>4.2132962805770662</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2019</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>4.1985526411790461</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2019</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>4.0905550367408701</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2019</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>3.837651233319662</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2019</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>3.7109105262419533</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2019</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>3.9633627112340792</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2019</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>3.8229212290799874</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2019</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>3.8162690835739705</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2019</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>3.7027806167594219</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2019</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>3.3752808545136488</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2019</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>3.2891634279931035</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2019</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>3.4879270414959933</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2019</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>3.4026531256921477</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2019</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>3.3623825174155195</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2019</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>3.2743259405570213</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2020</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>3.0967738274973136</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2020</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>3.0341378901857348</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2020</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>3.167661470553794</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2020</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>3.1250638321806643</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2020</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>3.0801409681726541</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2020</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>3.0023339239889606</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2020</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>2.9240337407116472</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2020</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>2.8571178000240836</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2020</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>2.9545397398118811</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2020</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>2.9003361598546595</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2020</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>2.8992873060622597</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2020</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>2.8675158544096022</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2020</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>2.721456262363489</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2020</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>2.6841015484335653</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2020</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>2.757139764887683</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2020</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>2.7221729750445403</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2020</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>2.7036728926433793</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2020</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>2.6693269928562824</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2020</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>2.4552662439742425</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2020</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>2.4427056530471098</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2020</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>2.4717161430356596</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2020</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>2.4673788819483313</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2020</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>2.4387270768197369</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2020</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>2.4450539789519454</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2021</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>2.1714387142333598</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2021</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>2.1943959045977834</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2021</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>2.1796195538458121</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2021</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>2.172557632524899</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2021</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>2.1585600437748496</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2021</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>2.1938165465924291</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2021</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>1.9301865499541007</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2021</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>1.9507061552718641</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2021</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>1.9630318412833365</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2021</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>1.9477042573932484</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2021</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>1.9277112822909288</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2021</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>1.9462985947082838</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2021</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>1.7688665475197134</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2021</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>1.7806131535699397</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2021</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>1.8018388031853367</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2021</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>1.7877898624868149</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2021</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>1.7685850697851537</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2021</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>1.758183699531874</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2021</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>1.6235525154772734</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2021</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>1.6129374851358278</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2021</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>1.6363696809536108</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2021</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>1.6314409097263365</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2021</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>1.6110085356388828</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2021</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>1.6095272329668422</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2022</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>1.4230349740452672</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2022</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>1.4241583579069619</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2022</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>1.4389331205711953</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2022</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>1.4342192001568796</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2022</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>1.4251946256380079</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2022</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>1.4286303621847092</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2022</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>1.2017543673936504</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2022</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>1.2055908876668726</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2022</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>1.2125667802955677</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2022</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>1.2051280512502496</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2022</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>1.2074805830838637</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2022</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>1.2069924231532627</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>2022</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>2022</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>2022</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>2022</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>2022</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>2022</v>
       </c>
@@ -3217,9 +3217,9 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>9.4605893333333295</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>8.9047466666666679</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>9.5489060000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2016</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>9.3712810000000015</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>9.2072580000000013</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2016</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>8.9970039999999987</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2017</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>9.1290114649124536</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>8.5791893101833985</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>9.2075395407080638</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>9.0002343390598369</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2017</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>8.8777199930962372</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2017</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>8.6134554425966137</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2017</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>8.5182060058915141</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2017</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>8.0581980433541531</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2017</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>8.6619065574063203</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>8.4099909958688954</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2017</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>8.3601643474905227</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2017</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>8.1581676094502793</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2017</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>8.1753317961133334</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2017</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>7.6878032833307586</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2017</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>8.3220862388924708</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2017</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>8.0832826579927719</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2017</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>7.9840139205436182</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2017</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>7.8126889057029967</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2017</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>7.7420376275596947</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2017</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>7.3103216523575698</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2017</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>7.9602011035519906</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2017</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>7.6853066143922426</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2017</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>7.5584418569587184</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2017</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>7.443589004639982</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2018</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>7.2451873433083129</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2018</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>6.8356290851178407</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2018</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>7.4913964595238909</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2018</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>7.2247592654316115</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2018</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>7.0747185213814641</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2018</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>6.9373793265108477</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2018</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>6.690766068566413</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2018</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>6.3367524068009562</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2018</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>6.9430632669146579</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2018</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>6.6597929279398045</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2018</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>6.5590315292959822</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2018</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>6.417575174830163</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2018</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>5.9903851653701183</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2018</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>5.6865087440408528</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2018</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>6.203065509927665</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2018</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>5.9696012380080061</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2018</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>5.8781650832605008</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2018</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>5.7755935435607526</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2018</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>5.183702781564552</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2018</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>4.9777777777777796</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2018</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>5.4208936662137166</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2018</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>5.2321946847349778</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2018</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>5.120117432602127</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2018</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>4.9898057598205732</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2019</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>4.7057190489336094</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2019</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>4.5182555232023294</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2019</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>4.8728198011899977</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2019</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>4.7289855937884075</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2019</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>4.6662421931619189</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2019</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>4.5394630886028331</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2019</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>4.2513560276893116</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2019</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>4.0726856722607483</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2019</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>4.3650272651182407</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2019</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>4.2132962805770662</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2019</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>4.1985526411790461</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2019</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>4.0905550367408701</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2019</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>3.837651233319662</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2019</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>3.7109105262419533</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2019</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>3.9633627112340792</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2019</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>3.8229212290799874</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2019</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>3.8162690835739705</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2019</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>3.7027806167594219</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2019</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>3.3752808545136488</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2019</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>3.2891634279931035</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2019</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>3.4879270414959933</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2019</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>3.4026531256921477</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2019</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>3.3623825174155195</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2019</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>3.2743259405570213</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2020</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>3.0967738274973136</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2020</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>3.0341378901857348</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2020</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>3.167661470553794</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2020</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>3.1250638321806643</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2020</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>3.0801409681726541</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2020</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>3.0023339239889606</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2020</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>2.9240337407116472</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2020</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>2.8571178000240836</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2020</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>2.9545397398118811</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2020</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>2.9003361598546595</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2020</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>2.8992873060622597</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2020</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>2.8675158544096022</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2020</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>2.721456262363489</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2020</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>2.6841015484335653</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2020</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>2.757139764887683</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2020</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>2.7221729750445403</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2020</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>2.7036728926433793</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2020</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>2.6693269928562824</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2020</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>2.4552662439742425</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2020</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>2.4427056530471098</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2020</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>2.4717161430356596</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2020</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>2.4673788819483313</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2020</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>2.4387270768197369</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2020</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>2.4450539789519454</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2021</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>2.1714387142333598</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2021</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>2.1943959045977834</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2021</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>2.1796195538458121</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2021</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>2.172557632524899</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2021</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>2.1585600437748496</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2021</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>2.1938165465924291</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2021</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>1.9301865499541007</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2021</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>1.9507061552718641</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2021</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>1.9630318412833365</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2021</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>1.9477042573932484</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2021</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>1.9277112822909288</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2021</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>1.9462985947082838</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2021</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>1.7688665475197134</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2021</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>1.7806131535699397</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2021</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>1.8018388031853367</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2021</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>1.7877898624868149</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2021</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>1.7685850697851537</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2021</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>1.758183699531874</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2021</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>1.6235525154772734</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2021</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>1.6129374851358278</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2021</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>1.6363696809536108</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2021</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>1.6314409097263365</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2021</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>1.6110085356388828</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2021</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>1.6095272329668422</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2022</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>1.4230349740452672</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2022</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>1.4241583579069619</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2022</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>1.4389331205711953</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2022</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>1.4342192001568796</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2022</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>1.4251946256380079</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2022</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>1.4286303621847092</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2022</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>1.2017543673936504</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2022</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>1.2055908876668726</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2022</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>1.2125667802955677</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2022</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>1.2051280512502496</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2022</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>1.2074805830838637</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2022</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>1.2069924231532627</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>2022</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>2022</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>2022</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>2022</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>2022</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>2022</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2022</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>1117.0253666666699</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2022</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>1060.0553333333301</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2022</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>1135.4817</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2022</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>1109.934</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2022</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>1091.8588999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2022</v>
       </c>
@@ -6542,16 +6542,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87F66E2-4C5F-42E4-9FC1-CC523E613718}">
-  <dimension ref="A1:S78"/>
+  <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K79" sqref="K79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="24" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
@@ -6577,7 +6577,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>42705</v>
       </c>
@@ -6607,7 +6607,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>42736</v>
       </c>
@@ -6637,7 +6637,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>42767</v>
       </c>
@@ -6667,7 +6667,7 @@
       <c r="O4" s="6"/>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>42795</v>
       </c>
@@ -6697,7 +6697,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>42826</v>
       </c>
@@ -6727,7 +6727,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>42856</v>
       </c>
@@ -6757,7 +6757,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>42887</v>
       </c>
@@ -6787,7 +6787,7 @@
       <c r="O8" s="6"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>42917</v>
       </c>
@@ -6817,7 +6817,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>42948</v>
       </c>
@@ -6847,7 +6847,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>42979</v>
       </c>
@@ -6877,7 +6877,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>43009</v>
       </c>
@@ -6907,7 +6907,7 @@
       <c r="O12" s="6"/>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>43040</v>
       </c>
@@ -6937,7 +6937,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>43070</v>
       </c>
@@ -6967,7 +6967,7 @@
       <c r="O14" s="6"/>
       <c r="P14" s="7"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>43101</v>
       </c>
@@ -6997,7 +6997,7 @@
       <c r="O15" s="6"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>43132</v>
       </c>
@@ -7027,7 +7027,7 @@
       <c r="O16" s="6"/>
       <c r="P16" s="7"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>43160</v>
       </c>
@@ -7057,7 +7057,7 @@
       <c r="O17" s="6"/>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>43191</v>
       </c>
@@ -7087,7 +7087,7 @@
       <c r="O18" s="6"/>
       <c r="P18" s="7"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>43221</v>
       </c>
@@ -7117,7 +7117,7 @@
       <c r="O19" s="6"/>
       <c r="P19" s="7"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>43252</v>
       </c>
@@ -7147,7 +7147,7 @@
       <c r="O20" s="6"/>
       <c r="P20" s="7"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>43282</v>
       </c>
@@ -7177,7 +7177,7 @@
       <c r="O21" s="6"/>
       <c r="P21" s="7"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>43313</v>
       </c>
@@ -7207,7 +7207,7 @@
       <c r="O22" s="6"/>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>43344</v>
       </c>
@@ -7237,7 +7237,7 @@
       <c r="O23" s="6"/>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>43374</v>
       </c>
@@ -7267,7 +7267,7 @@
       <c r="O24" s="6"/>
       <c r="P24" s="7"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>43405</v>
       </c>
@@ -7297,7 +7297,7 @@
       <c r="O25" s="6"/>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>43435</v>
       </c>
@@ -7327,7 +7327,7 @@
       <c r="O26" s="6"/>
       <c r="P26" s="7"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>43466</v>
       </c>
@@ -7357,7 +7357,7 @@
       <c r="O27" s="6"/>
       <c r="P27" s="7"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>43497</v>
       </c>
@@ -7387,7 +7387,7 @@
       <c r="O28" s="6"/>
       <c r="P28" s="7"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>43525</v>
       </c>
@@ -7417,7 +7417,7 @@
       <c r="O29" s="6"/>
       <c r="P29" s="7"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>43556</v>
       </c>
@@ -7447,7 +7447,7 @@
       <c r="O30" s="6"/>
       <c r="P30" s="7"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>43586</v>
       </c>
@@ -7477,7 +7477,7 @@
       <c r="O31" s="6"/>
       <c r="P31" s="7"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>43617</v>
       </c>
@@ -7507,7 +7507,7 @@
       <c r="O32" s="6"/>
       <c r="P32" s="7"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>43647</v>
       </c>
@@ -7537,7 +7537,7 @@
       <c r="O33" s="6"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>43678</v>
       </c>
@@ -7567,7 +7567,7 @@
       <c r="O34" s="6"/>
       <c r="P34" s="7"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>43709</v>
       </c>
@@ -7597,7 +7597,7 @@
       <c r="O35" s="6"/>
       <c r="P35" s="7"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>43739</v>
       </c>
@@ -7627,7 +7627,7 @@
       <c r="O36" s="6"/>
       <c r="P36" s="7"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>43770</v>
       </c>
@@ -7657,7 +7657,7 @@
       <c r="O37" s="6"/>
       <c r="P37" s="7"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>43800</v>
       </c>
@@ -7687,7 +7687,7 @@
       <c r="O38" s="6"/>
       <c r="P38" s="7"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>43831</v>
       </c>
@@ -7717,7 +7717,7 @@
       <c r="O39" s="6"/>
       <c r="P39" s="7"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>43862</v>
       </c>
@@ -7747,7 +7747,7 @@
       <c r="O40" s="6"/>
       <c r="P40" s="7"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>43891</v>
       </c>
@@ -7777,7 +7777,7 @@
       <c r="O41" s="6"/>
       <c r="P41" s="7"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>43922</v>
       </c>
@@ -7807,7 +7807,7 @@
       <c r="O42" s="6"/>
       <c r="P42" s="7"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>43952</v>
       </c>
@@ -7837,7 +7837,7 @@
       <c r="O43" s="6"/>
       <c r="P43" s="7"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>43983</v>
       </c>
@@ -7867,7 +7867,7 @@
       <c r="O44" s="6"/>
       <c r="P44" s="7"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>44013</v>
       </c>
@@ -7897,7 +7897,7 @@
       <c r="O45" s="6"/>
       <c r="P45" s="7"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>44044</v>
       </c>
@@ -7927,7 +7927,7 @@
       <c r="O46" s="6"/>
       <c r="P46" s="7"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>44075</v>
       </c>
@@ -7957,7 +7957,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="7"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>44105</v>
       </c>
@@ -7987,7 +7987,7 @@
       <c r="O48" s="6"/>
       <c r="P48" s="7"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>44136</v>
       </c>
@@ -8017,7 +8017,7 @@
       <c r="O49" s="6"/>
       <c r="P49" s="7"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>44166</v>
       </c>
@@ -8047,7 +8047,7 @@
       <c r="O50" s="6"/>
       <c r="P50" s="7"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>44197</v>
       </c>
@@ -8077,7 +8077,7 @@
       <c r="O51" s="6"/>
       <c r="P51" s="7"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>44228</v>
       </c>
@@ -8107,7 +8107,7 @@
       <c r="O52" s="8"/>
       <c r="P52" s="8"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>44256</v>
       </c>
@@ -8140,7 +8140,7 @@
       <c r="R53" s="8"/>
       <c r="S53" s="8"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>44287</v>
       </c>
@@ -8170,7 +8170,7 @@
       <c r="O54" s="8"/>
       <c r="P54" s="8"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>44317</v>
       </c>
@@ -8200,7 +8200,7 @@
       <c r="O55" s="8"/>
       <c r="P55" s="8"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>44348</v>
       </c>
@@ -8230,7 +8230,7 @@
       <c r="O56" s="8"/>
       <c r="P56" s="8"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>44378</v>
       </c>
@@ -8260,7 +8260,7 @@
       <c r="O57" s="8"/>
       <c r="P57" s="8"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>44409</v>
       </c>
@@ -8290,7 +8290,7 @@
       <c r="O58" s="8"/>
       <c r="P58" s="8"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>44440</v>
       </c>
@@ -8320,7 +8320,7 @@
       <c r="O59" s="8"/>
       <c r="P59" s="8"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>44470</v>
       </c>
@@ -8350,7 +8350,7 @@
       <c r="O60" s="8"/>
       <c r="P60" s="8"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>44501</v>
       </c>
@@ -8380,7 +8380,7 @@
       <c r="O61" s="8"/>
       <c r="P61" s="8"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>44531</v>
       </c>
@@ -8410,7 +8410,7 @@
       <c r="O62" s="8"/>
       <c r="P62" s="8"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>44562</v>
       </c>
@@ -8443,7 +8443,7 @@
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>44593</v>
       </c>
@@ -8473,7 +8473,7 @@
       <c r="O64" s="8"/>
       <c r="P64" s="8"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>44621</v>
       </c>
@@ -8506,7 +8506,7 @@
       <c r="R65" s="8"/>
       <c r="S65" s="8"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>44652</v>
       </c>
@@ -8536,7 +8536,7 @@
       <c r="O66" s="8"/>
       <c r="P66" s="8"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>44682</v>
       </c>
@@ -8566,7 +8566,7 @@
       <c r="O67" s="8"/>
       <c r="P67" s="8"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>44713</v>
       </c>
@@ -8596,7 +8596,7 @@
       <c r="R68" s="8"/>
       <c r="S68" s="8"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>44743</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>845.03970000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>44774</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>899.46040000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>44805</v>
       </c>
@@ -8672,7 +8672,7 @@
       <c r="R71" s="8"/>
       <c r="S71" s="8"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>44835</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>1017.5863000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>44866</v>
       </c>
@@ -8725,7 +8725,7 @@
       <c r="R73" s="8"/>
       <c r="S73" s="8"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>44896</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>1115.8851999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="10">
         <v>44927</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>1181.5995</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" s="10">
         <v>44958</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>1249.6344999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" s="10">
         <v>44986</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>1336.6514</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" s="10">
         <v>45017</v>
       </c>
@@ -8838,6 +8838,190 @@
       </c>
       <c r="G78" s="8">
         <v>1445.0456999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A79" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B79" s="8">
+        <v>1592.4495999999999</v>
+      </c>
+      <c r="C79" s="8">
+        <v>1628.9716000000001</v>
+      </c>
+      <c r="D79" s="8">
+        <v>1652.2346</v>
+      </c>
+      <c r="E79" s="8">
+        <v>1670.3598</v>
+      </c>
+      <c r="F79" s="8">
+        <v>1652.9055000000001</v>
+      </c>
+      <c r="G79" s="8">
+        <v>1550.0989999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A80" s="10">
+        <v>45078</v>
+      </c>
+      <c r="B80" s="8">
+        <v>1685.1612</v>
+      </c>
+      <c r="C80" s="8">
+        <v>1724.8611000000001</v>
+      </c>
+      <c r="D80" s="8">
+        <v>1761.6307999999999</v>
+      </c>
+      <c r="E80" s="8">
+        <v>1780.7632000000001</v>
+      </c>
+      <c r="F80" s="8">
+        <v>1740.5995</v>
+      </c>
+      <c r="G80" s="8">
+        <v>1655.1801</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="10">
+        <v>45108</v>
+      </c>
+      <c r="B81" s="8">
+        <v>1789.4275</v>
+      </c>
+      <c r="C81" s="8">
+        <v>1835.8968</v>
+      </c>
+      <c r="D81" s="8">
+        <v>1868.6533999999999</v>
+      </c>
+      <c r="E81" s="8">
+        <v>1892.223</v>
+      </c>
+      <c r="F81" s="8">
+        <v>1850.3918000000001</v>
+      </c>
+      <c r="G81" s="8">
+        <v>1784.2535</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="10">
+        <v>45139</v>
+      </c>
+      <c r="B82" s="8">
+        <v>2008.8079</v>
+      </c>
+      <c r="C82" s="8">
+        <v>2060.6329000000001</v>
+      </c>
+      <c r="D82" s="8">
+        <v>2124.297</v>
+      </c>
+      <c r="E82" s="8">
+        <v>2160.5495999999998</v>
+      </c>
+      <c r="F82" s="8">
+        <v>2078.4830999999999</v>
+      </c>
+      <c r="G82" s="8">
+        <v>2000.9692</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="10">
+        <v>45170</v>
+      </c>
+      <c r="B83" s="8">
+        <v>2253.4785000000002</v>
+      </c>
+      <c r="C83" s="8">
+        <v>2330.0572999999999</v>
+      </c>
+      <c r="D83" s="8">
+        <v>2404.2327</v>
+      </c>
+      <c r="E83" s="8">
+        <v>2440.4173000000001</v>
+      </c>
+      <c r="F83" s="8">
+        <v>2362.3625000000002</v>
+      </c>
+      <c r="G83" s="8">
+        <v>2280.9069</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="10">
+        <v>45200</v>
+      </c>
+      <c r="B84" s="8">
+        <v>2447.5650000000001</v>
+      </c>
+      <c r="C84" s="8">
+        <v>2523.5826000000002</v>
+      </c>
+      <c r="D84" s="8">
+        <v>2589.8146999999999</v>
+      </c>
+      <c r="E84" s="8">
+        <v>2620.9032000000002</v>
+      </c>
+      <c r="F84" s="8">
+        <v>2536.7667000000001</v>
+      </c>
+      <c r="G84" s="8">
+        <v>2467.3877000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="10">
+        <v>45231</v>
+      </c>
+      <c r="B85" s="8">
+        <v>2763.4349999999999</v>
+      </c>
+      <c r="C85" s="8">
+        <v>2851.9486999999999</v>
+      </c>
+      <c r="D85" s="8">
+        <v>2895.7168999999999</v>
+      </c>
+      <c r="E85" s="8">
+        <v>2957.0558999999998</v>
+      </c>
+      <c r="F85" s="8">
+        <v>2860.4043000000001</v>
+      </c>
+      <c r="G85" s="8">
+        <v>2762.3076000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="10">
+        <v>45261</v>
+      </c>
+      <c r="B86" s="8">
+        <v>3456.6426000000001</v>
+      </c>
+      <c r="C86" s="8">
+        <v>3584.8438999999998</v>
+      </c>
+      <c r="D86" s="8">
+        <v>3626.27</v>
+      </c>
+      <c r="E86" s="8">
+        <v>3795.5250000000001</v>
+      </c>
+      <c r="F86" s="8">
+        <v>3599.7071000000001</v>
+      </c>
+      <c r="G86" s="8">
+        <v>3433.7881000000002</v>
       </c>
     </row>
   </sheetData>

--- a/preprocesamiento/fuentes/ipc_series_ctes_manual.xlsx
+++ b/preprocesamiento/fuentes/ipc_series_ctes_manual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinapradier/GIT/shinyapp/preprocesamiento/fuentes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4707464C-F1AF-0542-92A5-2F874611E2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AAB96E-B252-AB4C-A189-32D5A45C5A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-460" yWindow="-21100" windowWidth="28800" windowHeight="15820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shiny_regiones" sheetId="11" r:id="rId1"/>
@@ -6542,11 +6542,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87F66E2-4C5F-42E4-9FC1-CC523E613718}">
-  <dimension ref="A1:S86"/>
+  <dimension ref="A1:S95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J86" sqref="J86"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J96" sqref="J96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9024,6 +9024,213 @@
         <v>3433.7881000000002</v>
       </c>
     </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="10">
+        <v>45292</v>
+      </c>
+      <c r="B87" s="8">
+        <v>4132.4790000000003</v>
+      </c>
+      <c r="C87" s="8">
+        <v>4344.9628000000002</v>
+      </c>
+      <c r="D87" s="8">
+        <v>4413.6008000000002</v>
+      </c>
+      <c r="E87" s="8">
+        <v>4535.8005000000003</v>
+      </c>
+      <c r="F87" s="8">
+        <v>4402.1801999999998</v>
+      </c>
+      <c r="G87" s="8">
+        <v>4264.4517999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="10">
+        <v>45323</v>
+      </c>
+      <c r="B88" s="8">
+        <v>4751.2725</v>
+      </c>
+      <c r="C88" s="8">
+        <v>4861.5492999999997</v>
+      </c>
+      <c r="D88" s="8">
+        <v>4929.6046999999999</v>
+      </c>
+      <c r="E88" s="8">
+        <v>5030.0151999999998</v>
+      </c>
+      <c r="F88" s="8">
+        <v>4998.0445</v>
+      </c>
+      <c r="G88" s="8">
+        <v>4746.7686000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="10">
+        <v>45352</v>
+      </c>
+      <c r="B89" s="8">
+        <v>5296.8225000000002</v>
+      </c>
+      <c r="C89" s="8">
+        <v>5409.8995000000004</v>
+      </c>
+      <c r="D89" s="8">
+        <v>5361.7677000000003</v>
+      </c>
+      <c r="E89" s="8">
+        <v>5550.3829999999998</v>
+      </c>
+      <c r="F89" s="8">
+        <v>5463.2377999999999</v>
+      </c>
+      <c r="G89" s="8">
+        <v>5243.3122000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="10">
+        <v>45383</v>
+      </c>
+      <c r="B90" s="8">
+        <v>5785.5699000000004</v>
+      </c>
+      <c r="C90" s="8">
+        <v>5884.0006999999996</v>
+      </c>
+      <c r="D90" s="8">
+        <v>5849.8004000000001</v>
+      </c>
+      <c r="E90" s="8">
+        <v>5899.3334999999997</v>
+      </c>
+      <c r="F90" s="8">
+        <v>5908.4647000000004</v>
+      </c>
+      <c r="G90" s="8">
+        <v>5686.5425999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="10">
+        <v>45413</v>
+      </c>
+      <c r="B91" s="8">
+        <v>6034.3831</v>
+      </c>
+      <c r="C91" s="8">
+        <v>6120.2950000000001</v>
+      </c>
+      <c r="D91" s="8">
+        <v>6093.7424000000001</v>
+      </c>
+      <c r="E91" s="8">
+        <v>6119.4233999999997</v>
+      </c>
+      <c r="F91" s="8">
+        <v>6160.5766000000003</v>
+      </c>
+      <c r="G91" s="8">
+        <v>5943.5929999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="10">
+        <v>45444</v>
+      </c>
+      <c r="B92" s="8">
+        <v>6297.0959999999995</v>
+      </c>
+      <c r="C92" s="8">
+        <v>6410.2557999999999</v>
+      </c>
+      <c r="D92" s="8">
+        <v>6383.7683999999999</v>
+      </c>
+      <c r="E92" s="8">
+        <v>6387.5649999999996</v>
+      </c>
+      <c r="F92" s="8">
+        <v>6472.5963000000002</v>
+      </c>
+      <c r="G92" s="8">
+        <v>6238.0032000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="10">
+        <v>45474</v>
+      </c>
+      <c r="B93" s="8">
+        <v>6551.3220000000001</v>
+      </c>
+      <c r="C93" s="8">
+        <v>6662.3272999999999</v>
+      </c>
+      <c r="D93" s="8">
+        <v>6612.6868000000004</v>
+      </c>
+      <c r="E93" s="8">
+        <v>6681.8247000000001</v>
+      </c>
+      <c r="F93" s="8">
+        <v>6769.7853999999998</v>
+      </c>
+      <c r="G93" s="8">
+        <v>6497.5650999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="10">
+        <v>45505</v>
+      </c>
+      <c r="B94" s="8">
+        <v>6822.4011</v>
+      </c>
+      <c r="C94" s="8">
+        <v>6922.6205</v>
+      </c>
+      <c r="D94" s="8">
+        <v>6946.3271999999997</v>
+      </c>
+      <c r="E94" s="8">
+        <v>6973.5357999999997</v>
+      </c>
+      <c r="F94" s="8">
+        <v>7075.6030000000001</v>
+      </c>
+      <c r="G94" s="8">
+        <v>6797.2161999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="10">
+        <v>45536</v>
+      </c>
+      <c r="B95" s="8">
+        <v>7076.0410000000002</v>
+      </c>
+      <c r="C95" s="8">
+        <v>7145.0798000000004</v>
+      </c>
+      <c r="D95" s="8">
+        <v>7183.8906999999999</v>
+      </c>
+      <c r="E95" s="8">
+        <v>7201.2696999999998</v>
+      </c>
+      <c r="F95" s="8">
+        <v>7290.1216000000004</v>
+      </c>
+      <c r="G95" s="8">
+        <v>7050.5060999999996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/preprocesamiento/fuentes/ipc_series_ctes_manual.xlsx
+++ b/preprocesamiento/fuentes/ipc_series_ctes_manual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinapradier/GIT/shinyapp/preprocesamiento/fuentes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AAB96E-B252-AB4C-A189-32D5A45C5A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63C9076-D42C-4C46-A774-DF2CF49F07CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-460" yWindow="-21100" windowWidth="28800" windowHeight="15820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shiny_regiones" sheetId="11" r:id="rId1"/>
@@ -517,7 +517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495EB06F-1435-4337-BFF5-5A48A8FD771B}">
   <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A143" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -3213,7 +3213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74AF1071-E167-42A5-ADAD-340C427255CA}">
   <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A127" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -6542,11 +6542,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87F66E2-4C5F-42E4-9FC1-CC523E613718}">
-  <dimension ref="A1:S95"/>
+  <dimension ref="A1:S101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J96" sqref="J96"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M104" sqref="M104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9231,6 +9231,144 @@
         <v>7050.5060999999996</v>
       </c>
     </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="10">
+        <v>45566</v>
+      </c>
+      <c r="B96" s="8">
+        <v>7275.6041999999998</v>
+      </c>
+      <c r="C96" s="8">
+        <v>7328.3831</v>
+      </c>
+      <c r="D96" s="8">
+        <v>7367.1800999999996</v>
+      </c>
+      <c r="E96" s="8">
+        <v>7385.7947999999997</v>
+      </c>
+      <c r="F96" s="8">
+        <v>7453.7437</v>
+      </c>
+      <c r="G96" s="8">
+        <v>7278.5056000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="10">
+        <v>45597</v>
+      </c>
+      <c r="B97" s="8">
+        <v>7464.8666999999996</v>
+      </c>
+      <c r="C97" s="8">
+        <v>7497.9411</v>
+      </c>
+      <c r="D97" s="8">
+        <v>7509.1194999999998</v>
+      </c>
+      <c r="E97" s="8">
+        <v>7516.9946</v>
+      </c>
+      <c r="F97" s="8">
+        <v>7613.0942999999997</v>
+      </c>
+      <c r="G97" s="8">
+        <v>7517.8953000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="10">
+        <v>45627</v>
+      </c>
+      <c r="B98" s="8">
+        <v>7678.7745000000004</v>
+      </c>
+      <c r="C98" s="8">
+        <v>7687.2759999999998</v>
+      </c>
+      <c r="D98" s="8">
+        <v>7713.1412</v>
+      </c>
+      <c r="E98" s="8">
+        <v>7737.2547000000004</v>
+      </c>
+      <c r="F98" s="8">
+        <v>7788.6719999999996</v>
+      </c>
+      <c r="G98" s="8">
+        <v>7717.0880999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="10">
+        <v>45658</v>
+      </c>
+      <c r="B99" s="8">
+        <v>7834.1477000000004</v>
+      </c>
+      <c r="C99" s="8">
+        <v>7867.7709000000004</v>
+      </c>
+      <c r="D99" s="8">
+        <v>7912.5281000000004</v>
+      </c>
+      <c r="E99" s="8">
+        <v>7929.1117000000004</v>
+      </c>
+      <c r="F99" s="8">
+        <v>7941.8472000000002</v>
+      </c>
+      <c r="G99" s="8">
+        <v>7910.4796999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="10">
+        <v>45689</v>
+      </c>
+      <c r="B100" s="8">
+        <v>8009.2272000000003</v>
+      </c>
+      <c r="C100" s="8">
+        <v>8064.8530000000001</v>
+      </c>
+      <c r="D100" s="8">
+        <v>8116.2880999999998</v>
+      </c>
+      <c r="E100" s="8">
+        <v>8080.6559999999999</v>
+      </c>
+      <c r="F100" s="8">
+        <v>8154.0078000000003</v>
+      </c>
+      <c r="G100" s="8">
+        <v>8164.2681000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="10">
+        <v>45717</v>
+      </c>
+      <c r="B101" s="8">
+        <v>8317.9249999999993</v>
+      </c>
+      <c r="C101" s="8">
+        <v>8356.1088</v>
+      </c>
+      <c r="D101" s="8">
+        <v>8467.6618999999992</v>
+      </c>
+      <c r="E101" s="8">
+        <v>8333.4503000000004</v>
+      </c>
+      <c r="F101" s="8">
+        <v>8441.2461999999996</v>
+      </c>
+      <c r="G101" s="8">
+        <v>8434.2327999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
